--- a/generated_docs/WR_89699991_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_080325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Bryant Murphy</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/29/2025 to 08/03/25</t>
+          <t>07/28/2025 to 08/03/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>846-2</t>
+          <t>704-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89699991_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5160.76</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>CNA-TJ</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>CNA,Temporary Jumper</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -765,13 +765,13 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
@@ -799,28 +799,28 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>CNA-TJ</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>CNA,Temporary Jumper</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,32 +829,32 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>CNA-TR</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>CNA,Transfer Conductor</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>CNA-TRPSE</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>CNA,Pole Set Energized Line,TempRelocate</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,32 +965,32 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +999,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,32 +1033,32 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,32 +1067,32 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,32 +1101,32 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,11 +1135,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,197 +1271,401 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H32" s="16" t="n">
-        <v>3215.17</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="H38" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/29/2025)</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr">
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G36" s="8" t="inlineStr">
+      <c r="G42" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H36" s="8" t="inlineStr">
+      <c r="H42" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B43" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="10" t="n">
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B44" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C44" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="D44" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="n">
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B45" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="10" t="n">
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="15" t="inlineStr">
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H40" s="16" t="n">
-        <v>1945.59</v>
+      <c r="H46" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A32:G32"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A35:H35"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A46:G46"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>

--- a/generated_docs/WR_89699991_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89699991_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I46"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>5160.76</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -742,7 +738,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>CNA-TJ</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +748,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>CNA,Temporary Jumper</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -765,13 +761,13 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
@@ -781,7 +777,7 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
@@ -799,28 +795,28 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CNA-TJ</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CNA,Temporary Jumper</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,32 +825,32 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +908,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CNA-TR</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CNA,Transfer Conductor</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -931,11 +927,11 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>CNA-TRPSE</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>CNA,Pole Set Energized Line,TempRelocate</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,32 +961,32 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +995,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>INS-15-P-S</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,32 +1029,32 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PIN-35-PTP</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>Pin,35kV,Pole Top</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,32 +1063,32 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-XAL</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,Crossarm Light</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,32 +1097,32 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,11 +1131,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1199,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PIN-35-PTP</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>Pin,35kV,Pole Top</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1237,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,401 +1267,197 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="n">
+      <c r="A32" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H32" s="16" t="n">
+        <v>3215.17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/29/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="10" t="inlineStr"/>
-      <c r="H32" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C33" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
+      <c r="G37" s="10" t="inlineStr"/>
+      <c r="H37" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G33" s="13" t="inlineStr"/>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="n">
+      <c r="G38" s="13" t="inlineStr"/>
+      <c r="H38" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="10" t="inlineStr"/>
-      <c r="H34" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="15" t="inlineStr">
+      <c r="G39" s="10" t="inlineStr"/>
+      <c r="H39" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H38" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/29/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D42" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E42" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F42" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G42" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H42" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H46" s="16" t="n">
-        <v>0</v>
+      <c r="H40" s="16" t="n">
+        <v>1945.59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A46:G46"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A41:H41"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
